--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-361351.8286561385</v>
+        <v>-363923.5991764271</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>174.9229604899109</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>193.4279915363267</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>120.4534882002152</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>26.30660220273166</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>345.1568131459774</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>43.93598676617137</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>93.00230038800736</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>55.17997912739413</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.3978584295391</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>328.9725371167045</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>92.85773606344978</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>41.16673120696609</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>25.07757910977637</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>27.24739666248491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>86.24032515900413</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>93.62264337260652</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>158.8230507160376</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>139.5930054288739</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417133</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>181.6459914616335</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3709,13 +3709,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>53.76947475493767</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1389.56156202353</v>
+        <v>475.8861343388652</v>
       </c>
       <c r="C2" t="n">
-        <v>1020.599045083118</v>
+        <v>475.8861343388652</v>
       </c>
       <c r="D2" t="n">
-        <v>662.3333464763675</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E2" t="n">
-        <v>662.3333464763675</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1897.831592188879</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>1776.161402087651</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y2" t="n">
-        <v>1776.161402087651</v>
+        <v>652.5759934195833</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>102.742491745203</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>102.742491745203</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1087.683159487371</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1087.683159487371</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1087.683159487371</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X4" t="n">
-        <v>1087.683159487371</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>1087.683159487371</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2003.121004338519</v>
+        <v>1532.019095624401</v>
       </c>
       <c r="C5" t="n">
-        <v>1634.158487398107</v>
+        <v>1163.05657868399</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>1163.05657868399</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>777.2683260857452</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>770.3228253365418</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2393.260336314331</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2393.260336314331</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>2393.260336314331</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X5" t="n">
-        <v>2393.260336314331</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="Y5" t="n">
-        <v>2003.121004338519</v>
+        <v>1918.618935688523</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4647,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751767</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.9138669598622</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="C7" t="n">
-        <v>367.9721493962184</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="D7" t="n">
-        <v>367.9721493962184</v>
+        <v>550.5260784387339</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>402.6129848563407</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>255.7230373584304</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>255.7230373584304</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>106.9841392219366</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="X7" t="n">
-        <v>864.354910933632</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="Y7" t="n">
-        <v>643.5623317901019</v>
+        <v>700.6427178510696</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2291.674678112796</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1922.712161172384</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1564.446462565634</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4802,22 +4802,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883008</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612893</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X8" t="n">
-        <v>2719.306689612893</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="Y8" t="n">
-        <v>2719.306689612893</v>
+        <v>2678.274518176918</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>622.8136871311516</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>622.8136871311516</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>622.8136871311516</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>474.9005935487585</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>328.0106460508481</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>160.3078094255671</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>843.6062662746817</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>622.8136871311516</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5039,19 +5039,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.079034721979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180513</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>449.4852666057155</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2421.632195590587</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2238.777361245492</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2019.175896268433</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1730.100669612631</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1475.416181406744</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2238.914344045922</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2238.914344045922</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1949.83911739012</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1695.154629184233</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1405.737459147272</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1360811687895</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2325.6047790701</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
         <v>782.551295565682</v>
@@ -7795,22 +7795,22 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,16 +7819,16 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>30.36925650589518</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,28 +8295,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9556134883068239</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.4465442417437</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>207.8108811735697</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>235.0696747646924</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>249.2776124782539</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>105.2672314396031</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41.29766760034532</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>21.00892946589966</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>41.43328057277071</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>104.8770068749575</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>127.2568112467069</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-5.044853423896711e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1023029.617751839</v>
+        <v>1023029.617751838</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350417</v>
+        <v>251542.9259350416</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
+        <v>282501.3098915023</v>
+      </c>
+      <c r="F2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="G2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="H2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>282501.3098915021</v>
-      </c>
-      <c r="G2" t="n">
-        <v>282501.3098915021</v>
-      </c>
-      <c r="H2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="I2" t="n">
-        <v>282501.3098915022</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
+        <v>287364.6194524992</v>
+      </c>
+      <c r="P2" t="n">
         <v>287364.6194524993</v>
-      </c>
-      <c r="P2" t="n">
-        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78309.57868964841</v>
+        <v>78309.57868964833</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
@@ -26433,16 +26433,16 @@
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756599</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="J4" t="n">
-        <v>9337.200356756573</v>
-      </c>
       <c r="K4" t="n">
-        <v>9337.200356756508</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
         <v>9337.200356756592</v>
@@ -26451,13 +26451,13 @@
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="O4" t="n">
         <v>17328.05961985006</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985005</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1034456.208770371</v>
+        <v>-1034712.078009781</v>
       </c>
       <c r="C6" t="n">
-        <v>57700.57332055195</v>
+        <v>57700.5733205521</v>
       </c>
       <c r="D6" t="n">
         <v>-101720.6966773399</v>
       </c>
       <c r="E6" t="n">
-        <v>-153370.8820965167</v>
+        <v>-153405.6200219523</v>
       </c>
       <c r="F6" t="n">
-        <v>172041.5797108385</v>
+        <v>172006.8417854028</v>
       </c>
       <c r="G6" t="n">
-        <v>172041.5797108384</v>
+        <v>172006.8417854028</v>
       </c>
       <c r="H6" t="n">
-        <v>172041.5797108386</v>
+        <v>172006.8417854027</v>
       </c>
       <c r="I6" t="n">
-        <v>172041.5797108385</v>
+        <v>172006.8417854027</v>
       </c>
       <c r="J6" t="n">
-        <v>4436.401900855737</v>
+        <v>4401.663975420248</v>
       </c>
       <c r="K6" t="n">
-        <v>172041.5797108386</v>
+        <v>172006.8417854027</v>
       </c>
       <c r="L6" t="n">
-        <v>123747.6097026477</v>
+        <v>123712.8717772119</v>
       </c>
       <c r="M6" t="n">
-        <v>86986.5517753267</v>
+        <v>86951.81384989095</v>
       </c>
       <c r="N6" t="n">
-        <v>172041.5797108386</v>
+        <v>172006.8417854027</v>
       </c>
       <c r="O6" t="n">
-        <v>147444.7259851021</v>
+        <v>147444.7259851019</v>
       </c>
       <c r="P6" t="n">
-        <v>166872.4439787337</v>
+        <v>166872.4439787338</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>130.2032170063151</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>213.4480542053848</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.81584707847268</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>259.920551918469</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>66.39088962697662</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>207.1092633622906</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>74.24452071062048</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>49.61661607650645</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27828,7 +27828,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.33598323394148</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>52.95783295555725</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>51.897278850871</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31835,19 +31835,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,7 +31856,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>436.0678650906015</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>592.18749414096</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>456.3459017226597</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>560.2586790698755</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35015,28 +35015,28 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>367.8869457703473</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>631.6436438346176</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,7 +35504,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>302.0934576762713</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>45.87687150790109</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>453.6331143610858</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>318.5044627483007</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
         <v>418.6266618111712</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
